--- a/BackTest/2020-01-16 BackTest HC.xlsx
+++ b/BackTest/2020-01-16 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-99.99902943999984</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-99.99902943999984</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1469</v>
@@ -521,7 +521,7 @@
         <v>-99.99902943999984</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1469</v>
@@ -562,7 +562,7 @@
         <v>912.1490705600002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1469</v>
@@ -603,7 +603,7 @@
         <v>912.1490705600002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1470</v>
@@ -644,7 +644,7 @@
         <v>912.1490705600002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1470</v>
@@ -685,7 +685,7 @@
         <v>922.1490705600002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1470</v>
@@ -726,7 +726,7 @@
         <v>922.1490705600002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1482</v>
@@ -767,7 +767,7 @@
         <v>896.8390705600002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1482</v>
@@ -808,7 +808,7 @@
         <v>1241.63997056</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1475</v>
@@ -849,7 +849,7 @@
         <v>3306.13807056</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1489</v>
@@ -890,7 +890,7 @@
         <v>5185.70007056</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1509</v>
@@ -931,7 +931,7 @@
         <v>5184.20007056</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1510</v>
@@ -972,7 +972,7 @@
         <v>5225.460170560001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1488</v>
@@ -1013,7 +1013,7 @@
         <v>5037.76887056</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1510</v>
@@ -1054,7 +1054,7 @@
         <v>5033.76887056</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1474</v>
@@ -1095,7 +1095,7 @@
         <v>5030.51887056</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1452</v>
@@ -1136,7 +1136,7 @@
         <v>5032.01887056</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1440</v>
@@ -1177,7 +1177,7 @@
         <v>5819.536570560001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1441</v>
@@ -1218,7 +1218,7 @@
         <v>5819.536570560001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1466</v>
@@ -1259,7 +1259,7 @@
         <v>6926.259170560001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1466</v>
@@ -1300,7 +1300,7 @@
         <v>7332.06387056</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1467</v>
@@ -1341,7 +1341,7 @@
         <v>6105.16687056</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1502</v>
@@ -1382,7 +1382,7 @@
         <v>6073.266870560001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1491</v>
@@ -1423,7 +1423,7 @@
         <v>6063.266870560001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1477</v>
@@ -1464,7 +1464,7 @@
         <v>6035.326870560001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1476</v>
@@ -1505,7 +1505,7 @@
         <v>6010.776970560001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1471</v>
@@ -1546,7 +1546,7 @@
         <v>5975.776970560001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1470</v>
@@ -1587,7 +1587,7 @@
         <v>6002.604603020001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1462</v>
@@ -1628,7 +1628,7 @@
         <v>5975.777003020002</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1491</v>
@@ -1669,7 +1669,7 @@
         <v>5977.177003020001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1469</v>
@@ -1710,9 +1710,11 @@
         <v>5977.807403020001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1485</v>
+      </c>
       <c r="J33" t="n">
         <v>1469</v>
       </c>
@@ -1749,9 +1751,11 @@
         <v>5977.807403020001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1486</v>
+      </c>
       <c r="J34" t="n">
         <v>1469</v>
       </c>
@@ -1788,9 +1792,11 @@
         <v>5955.107403020002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1486</v>
+      </c>
       <c r="J35" t="n">
         <v>1469</v>
       </c>
@@ -1827,9 +1833,11 @@
         <v>5955.107503020002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1485</v>
+      </c>
       <c r="J36" t="n">
         <v>1469</v>
       </c>
@@ -1866,9 +1874,11 @@
         <v>6042.736703020002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1486</v>
+      </c>
       <c r="J37" t="n">
         <v>1469</v>
       </c>
@@ -1905,9 +1915,11 @@
         <v>6043.736703020002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1488</v>
+      </c>
       <c r="J38" t="n">
         <v>1469</v>
       </c>
@@ -1944,9 +1956,11 @@
         <v>6044.236703020002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1491</v>
+      </c>
       <c r="J39" t="n">
         <v>1469</v>
       </c>
@@ -1983,9 +1997,11 @@
         <v>6044.236703020002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1492</v>
+      </c>
       <c r="J40" t="n">
         <v>1469</v>
       </c>
@@ -2022,9 +2038,11 @@
         <v>6074.163503020002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1492</v>
+      </c>
       <c r="J41" t="n">
         <v>1469</v>
       </c>
@@ -2061,9 +2079,11 @@
         <v>6327.977703020002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1494</v>
+      </c>
       <c r="J42" t="n">
         <v>1469</v>
       </c>
@@ -2100,9 +2120,11 @@
         <v>6343.294603020002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1495</v>
+      </c>
       <c r="J43" t="n">
         <v>1469</v>
       </c>
@@ -2139,9 +2161,11 @@
         <v>6342.664203020002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1499</v>
+      </c>
       <c r="J44" t="n">
         <v>1469</v>
       </c>
@@ -2178,7 +2202,7 @@
         <v>6383.924303020002</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>1490</v>
@@ -2219,7 +2243,7 @@
         <v>6384.274303020003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>1492</v>
@@ -2260,7 +2284,7 @@
         <v>6384.274303020003</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>1500</v>
@@ -2301,7 +2325,7 @@
         <v>6384.274303020003</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1500</v>
@@ -2342,7 +2366,7 @@
         <v>6384.274303020003</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>1500</v>
@@ -2383,9 +2407,11 @@
         <v>6384.274303020003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1500</v>
+      </c>
       <c r="J50" t="n">
         <v>1469</v>
       </c>
@@ -2422,9 +2448,11 @@
         <v>7227.338303020003</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1500</v>
+      </c>
       <c r="J51" t="n">
         <v>1469</v>
       </c>
@@ -2461,9 +2489,11 @@
         <v>7227.338303020003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1501</v>
+      </c>
       <c r="J52" t="n">
         <v>1469</v>
       </c>
@@ -2500,9 +2530,11 @@
         <v>8495.877903020002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1501</v>
+      </c>
       <c r="J53" t="n">
         <v>1469</v>
       </c>
@@ -2539,9 +2571,11 @@
         <v>8495.877903020002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1510</v>
+      </c>
       <c r="J54" t="n">
         <v>1469</v>
       </c>
@@ -3202,9 +3236,11 @@
         <v>4343.542891500003</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1471</v>
+      </c>
       <c r="J71" t="n">
         <v>1469</v>
       </c>
@@ -3241,9 +3277,11 @@
         <v>3251.926991500003</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1489</v>
+      </c>
       <c r="J72" t="n">
         <v>1469</v>
       </c>
@@ -3280,9 +3318,11 @@
         <v>3325.874391500003</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1480</v>
+      </c>
       <c r="J73" t="n">
         <v>1469</v>
       </c>
@@ -3319,9 +3359,11 @@
         <v>169.3492915000033</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1488</v>
+      </c>
       <c r="J74" t="n">
         <v>1469</v>
       </c>
@@ -3592,9 +3634,11 @@
         <v>617.4569703800034</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1502</v>
+      </c>
       <c r="J81" t="n">
         <v>1469</v>
       </c>
@@ -3631,9 +3675,11 @@
         <v>748.7767340000034</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1516</v>
+      </c>
       <c r="J82" t="n">
         <v>1469</v>
       </c>
@@ -3670,9 +3716,11 @@
         <v>735.9192340000035</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1523</v>
+      </c>
       <c r="J83" t="n">
         <v>1469</v>
       </c>
@@ -3748,9 +3796,11 @@
         <v>-263.4528659999966</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1520</v>
+      </c>
       <c r="J85" t="n">
         <v>1469</v>
       </c>
@@ -3787,9 +3837,11 @@
         <v>-263.4528659999966</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1518</v>
+      </c>
       <c r="J86" t="n">
         <v>1469</v>
       </c>
@@ -3865,9 +3917,11 @@
         <v>-312.8559659999966</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1498</v>
+      </c>
       <c r="J88" t="n">
         <v>1469</v>
       </c>
@@ -3904,9 +3958,11 @@
         <v>-312.8559659999966</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1498</v>
+      </c>
       <c r="J89" t="n">
         <v>1469</v>
       </c>
@@ -3943,9 +3999,11 @@
         <v>-1216.377365999997</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1498</v>
+      </c>
       <c r="J90" t="n">
         <v>1469</v>
       </c>
@@ -3982,9 +4040,11 @@
         <v>-1216.377365999997</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1495</v>
+      </c>
       <c r="J91" t="n">
         <v>1469</v>
       </c>
@@ -4021,9 +4081,11 @@
         <v>-1270.543065999997</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1495</v>
+      </c>
       <c r="J92" t="n">
         <v>1469</v>
       </c>
@@ -4060,9 +4122,11 @@
         <v>-1242.099565999996</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1493</v>
+      </c>
       <c r="J93" t="n">
         <v>1469</v>
       </c>
@@ -4099,9 +4163,11 @@
         <v>-1241.099565999996</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1494</v>
+      </c>
       <c r="J94" t="n">
         <v>1469</v>
       </c>
@@ -4138,9 +4204,11 @@
         <v>-1241.099565999996</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1509</v>
+      </c>
       <c r="J95" t="n">
         <v>1469</v>
       </c>
@@ -4177,9 +4245,11 @@
         <v>-1190.751765999996</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1509</v>
+      </c>
       <c r="J96" t="n">
         <v>1469</v>
       </c>
@@ -4216,9 +4286,11 @@
         <v>-1190.751765999996</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1514</v>
+      </c>
       <c r="J97" t="n">
         <v>1469</v>
       </c>
@@ -4255,9 +4327,11 @@
         <v>-474.4888659999965</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1514</v>
+      </c>
       <c r="J98" t="n">
         <v>1469</v>
       </c>
@@ -4294,9 +4368,11 @@
         <v>-474.4888659999965</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1520</v>
+      </c>
       <c r="J99" t="n">
         <v>1469</v>
       </c>
@@ -4372,9 +4448,11 @@
         <v>-474.4888659999965</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1520</v>
+      </c>
       <c r="J101" t="n">
         <v>1469</v>
       </c>
@@ -5074,9 +5152,11 @@
         <v>-1845.245665999996</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1562</v>
+      </c>
       <c r="J119" t="n">
         <v>1469</v>
       </c>
@@ -5113,9 +5193,11 @@
         <v>-1845.245665999996</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1565</v>
+      </c>
       <c r="J120" t="n">
         <v>1469</v>
       </c>
@@ -5152,9 +5234,11 @@
         <v>-1845.245665999996</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1565</v>
+      </c>
       <c r="J121" t="n">
         <v>1469</v>
       </c>
@@ -5191,9 +5275,11 @@
         <v>-1845.245665999996</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1565</v>
+      </c>
       <c r="J122" t="n">
         <v>1469</v>
       </c>
@@ -5230,9 +5316,11 @@
         <v>-1803.359965999996</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1565</v>
+      </c>
       <c r="J123" t="n">
         <v>1469</v>
       </c>
@@ -5737,9 +5825,11 @@
         <v>-2040.504265999996</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1532</v>
+      </c>
       <c r="J136" t="n">
         <v>1469</v>
       </c>
@@ -5815,9 +5905,11 @@
         <v>-2639.747565999995</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1545</v>
+      </c>
       <c r="J138" t="n">
         <v>1469</v>
       </c>
@@ -5854,9 +5946,11 @@
         <v>-3049.566965999995</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1532</v>
+      </c>
       <c r="J139" t="n">
         <v>1469</v>
       </c>
@@ -5893,9 +5987,11 @@
         <v>-3022.731765999995</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1525</v>
+      </c>
       <c r="J140" t="n">
         <v>1469</v>
       </c>
@@ -5932,9 +6028,11 @@
         <v>-3048.525465999996</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1538</v>
+      </c>
       <c r="J141" t="n">
         <v>1469</v>
       </c>
@@ -5971,9 +6069,11 @@
         <v>-2920.907865999995</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1526</v>
+      </c>
       <c r="J142" t="n">
         <v>1469</v>
       </c>
@@ -6010,9 +6110,11 @@
         <v>-2912.177865999995</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1529</v>
+      </c>
       <c r="J143" t="n">
         <v>1469</v>
       </c>
@@ -6049,9 +6151,11 @@
         <v>-2891.847965999995</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1541</v>
+      </c>
       <c r="J144" t="n">
         <v>1469</v>
       </c>
@@ -6088,9 +6192,11 @@
         <v>-3136.424365999995</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1542</v>
+      </c>
       <c r="J145" t="n">
         <v>1469</v>
       </c>
@@ -6127,9 +6233,11 @@
         <v>-3111.404365999995</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1532</v>
+      </c>
       <c r="J146" t="n">
         <v>1469</v>
       </c>
@@ -6166,9 +6274,11 @@
         <v>-3101.404365999995</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1542</v>
+      </c>
       <c r="J147" t="n">
         <v>1469</v>
       </c>
@@ -6205,9 +6315,11 @@
         <v>-3101.404365999995</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1549</v>
+      </c>
       <c r="J148" t="n">
         <v>1469</v>
       </c>
@@ -6283,9 +6395,11 @@
         <v>-3101.016065999995</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1561</v>
+      </c>
       <c r="J150" t="n">
         <v>1469</v>
       </c>
@@ -6868,9 +6982,11 @@
         <v>-5054.724365999995</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1562</v>
+      </c>
       <c r="J165" t="n">
         <v>1469</v>
       </c>
@@ -6907,9 +7023,11 @@
         <v>-4572.103665999995</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1570</v>
+      </c>
       <c r="J166" t="n">
         <v>1469</v>
       </c>
@@ -6946,9 +7064,11 @@
         <v>-4355.368665999995</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1598</v>
+      </c>
       <c r="J167" t="n">
         <v>1469</v>
       </c>
@@ -7024,9 +7144,11 @@
         <v>-4355.368665999995</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1600</v>
+      </c>
       <c r="J169" t="n">
         <v>1469</v>
       </c>
@@ -7063,9 +7185,11 @@
         <v>-4355.368665999995</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1600</v>
+      </c>
       <c r="J170" t="n">
         <v>1469</v>
       </c>
@@ -9130,7 +9254,7 @@
         <v>24243.76037806001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
@@ -9138,13 +9262,15 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>1.190371000680735</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9172,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9211,14 +9331,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9250,14 +9364,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9289,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9328,14 +9430,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9367,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9406,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9442,17 +9526,11 @@
         <v>26969.91177806001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9484,14 +9562,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9520,17 +9592,11 @@
         <v>25627.29077806001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9559,17 +9625,11 @@
         <v>25405.19677806001</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9598,17 +9658,11 @@
         <v>24023.34557806001</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9637,17 +9691,11 @@
         <v>22299.18257806001</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9676,17 +9724,11 @@
         <v>21534.87067806001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9715,17 +9757,11 @@
         <v>23211.59267806001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9754,17 +9790,11 @@
         <v>22230.03147806001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9793,17 +9823,11 @@
         <v>22159.15147806001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9832,17 +9856,11 @@
         <v>22670.27299276001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9871,17 +9889,11 @@
         <v>22667.84299276001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9910,17 +9922,11 @@
         <v>22667.84299276001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9949,17 +9955,11 @@
         <v>22602.17349276001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9991,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10027,17 +10021,11 @@
         <v>22691.02639276001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10066,17 +10054,11 @@
         <v>22649.01649276001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10105,17 +10087,11 @@
         <v>22548.29349276</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10144,17 +10120,11 @@
         <v>22556.34559276</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10183,17 +10153,11 @@
         <v>22527.74759276</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10222,17 +10186,11 @@
         <v>22295.07809276</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10261,17 +10219,11 @@
         <v>22290.07809276</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10300,17 +10252,11 @@
         <v>22375.60039276</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10339,17 +10285,11 @@
         <v>22223.12429276</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10378,17 +10318,11 @@
         <v>22318.67329276</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10417,17 +10351,11 @@
         <v>22294.37679276</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10456,17 +10384,11 @@
         <v>22100.54269276</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10495,17 +10417,11 @@
         <v>21973.67659276</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10534,17 +10450,11 @@
         <v>21457.13409276</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10573,17 +10483,11 @@
         <v>21374.44419276</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10612,17 +10516,11 @@
         <v>20847.16559276</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10651,17 +10549,11 @@
         <v>20312.23829276</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10690,17 +10582,11 @@
         <v>20992.47639276</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10729,17 +10615,11 @@
         <v>20941.42609276</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10768,17 +10648,11 @@
         <v>19929.87219276</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10807,17 +10681,11 @@
         <v>20157.23659276</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10846,17 +10714,11 @@
         <v>20166.23659276</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10885,17 +10747,11 @@
         <v>19591.67539276</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10924,17 +10780,11 @@
         <v>19592.47539276</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10963,17 +10813,11 @@
         <v>19640.67889276</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11002,17 +10846,11 @@
         <v>19640.67889276</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11041,17 +10879,11 @@
         <v>19646.46509276</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11080,17 +10912,11 @@
         <v>18888.02859276</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11119,17 +10945,11 @@
         <v>18123.78419276</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11158,17 +10978,11 @@
         <v>18349.98919276</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11197,17 +11011,11 @@
         <v>18279.97119276</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11236,17 +11044,11 @@
         <v>18043.55879276</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11275,17 +11077,11 @@
         <v>14267.16449276</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11314,17 +11110,11 @@
         <v>13696.53519276</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11353,17 +11143,11 @@
         <v>13700.53519276</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11392,17 +11176,11 @@
         <v>13930.41149276</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11431,17 +11209,11 @@
         <v>14198.50009276</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11473,14 +11245,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11512,14 +11278,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11551,14 +11311,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11590,14 +11344,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11629,14 +11377,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11668,14 +11410,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11707,14 +11443,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11746,14 +11476,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11785,14 +11509,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11824,14 +11542,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11863,14 +11575,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11902,14 +11608,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11941,14 +11641,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11980,14 +11674,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12019,14 +11707,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12058,14 +11740,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12097,14 +11773,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12136,14 +11806,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12175,14 +11839,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12214,14 +11872,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12253,14 +11905,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12292,14 +11938,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12331,14 +11971,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12370,14 +12004,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12409,14 +12037,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12448,14 +12070,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12487,14 +12103,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12526,14 +12136,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12565,14 +12169,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12604,14 +12202,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12643,14 +12235,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12682,14 +12268,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12721,14 +12301,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12760,14 +12334,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12799,14 +12367,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12838,14 +12400,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12874,23 +12430,15 @@
         <v>18723.84999276</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
-        <v>1.15429203539823</v>
-      </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -13443,7 +12991,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13476,7 +13024,7 @@
         <v>16982.45569276</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13575,7 +13123,7 @@
         <v>16680.0199867</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13971,7 +13519,7 @@
         <v>19035.6889884</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -14004,7 +13552,7 @@
         <v>19036.1889884</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14037,7 +13585,7 @@
         <v>19016.1889884</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -14070,7 +13618,7 @@
         <v>19100.8060884</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -14103,7 +13651,7 @@
         <v>19158.30321813</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14136,7 +13684,7 @@
         <v>19092.17811813</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14169,7 +13717,7 @@
         <v>20693.70681813</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14532,7 +14080,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14598,7 +14146,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14928,7 +14476,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14994,7 +14542,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15159,7 +14707,7 @@
         <v>19919.36541813001</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15192,7 +14740,7 @@
         <v>19865.39661813001</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15225,7 +14773,7 @@
         <v>19865.39661813001</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15258,7 +14806,7 @@
         <v>19871.39661813001</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15291,7 +14839,7 @@
         <v>19871.39661813001</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15324,7 +14872,7 @@
         <v>19998.66198337001</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15357,7 +14905,7 @@
         <v>18461.17318337001</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15390,7 +14938,7 @@
         <v>19440.06878337001</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15423,7 +14971,7 @@
         <v>19212.94688337002</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15456,7 +15004,7 @@
         <v>19213.94688337002</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15489,7 +15037,7 @@
         <v>17936.97678337002</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15522,7 +15070,7 @@
         <v>18995.26768337002</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15555,7 +15103,7 @@
         <v>18995.26768337002</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15588,7 +15136,7 @@
         <v>20228.13928337002</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15621,7 +15169,7 @@
         <v>21681.11716462002</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15654,7 +15202,7 @@
         <v>21681.11716462002</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15687,7 +15235,7 @@
         <v>21681.11716462002</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15720,7 +15268,7 @@
         <v>21681.11716462002</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15753,7 +15301,7 @@
         <v>21806.11716462002</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15786,7 +15334,7 @@
         <v>21799.11716462002</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15819,7 +15367,7 @@
         <v>22668.08446462002</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15852,7 +15400,7 @@
         <v>22668.08446462002</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15885,7 +15433,7 @@
         <v>24278.31436462002</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15918,7 +15466,7 @@
         <v>24278.31436462002</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15951,7 +15499,7 @@
         <v>24490.66276462001</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15984,7 +15532,7 @@
         <v>24512.73251876001</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16017,7 +15565,7 @@
         <v>24545.51011876002</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16050,7 +15598,7 @@
         <v>24545.51011876002</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16083,7 +15631,7 @@
         <v>24654.72281876002</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16116,7 +15664,7 @@
         <v>28377.80421876001</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16149,7 +15697,7 @@
         <v>28394.83021876002</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16182,7 +15730,7 @@
         <v>27360.48361876002</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16215,7 +15763,7 @@
         <v>23000.95261876002</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16248,7 +15796,7 @@
         <v>23001.95261876002</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16281,7 +15829,7 @@
         <v>21548.97481876002</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16314,7 +15862,7 @@
         <v>21883.70941876002</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16347,7 +15895,7 @@
         <v>21894.70941876002</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16380,7 +15928,7 @@
         <v>22691.05998579002</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16413,7 +15961,7 @@
         <v>22114.78618579002</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16446,7 +15994,7 @@
         <v>22344.24008579002</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16479,7 +16027,7 @@
         <v>22356.21330007002</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16512,7 +16060,7 @@
         <v>22270.85283542002</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16545,7 +16093,7 @@
         <v>22963.74063542002</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16578,7 +16126,7 @@
         <v>23000.74063542002</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16611,7 +16159,7 @@
         <v>23014.73680732002</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16644,7 +16192,7 @@
         <v>22991.18650732002</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16677,7 +16225,7 @@
         <v>21181.60090732002</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16710,7 +16258,7 @@
         <v>21339.99140732002</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16743,7 +16291,7 @@
         <v>21256.78750732002</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16776,7 +16324,7 @@
         <v>21298.14120732002</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16809,7 +16357,7 @@
         <v>21270.10450732002</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16842,7 +16390,7 @@
         <v>21172.51213846002</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16875,7 +16423,7 @@
         <v>21172.51213846002</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16908,7 +16456,7 @@
         <v>20705.60703846002</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16941,7 +16489,7 @@
         <v>20705.60703846002</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16974,7 +16522,7 @@
         <v>20723.62703846002</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17007,7 +16555,7 @@
         <v>22659.44413846002</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17040,7 +16588,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17073,7 +16621,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17106,7 +16654,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17139,7 +16687,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17172,7 +16720,7 @@
         <v>21600.26433846002</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17205,7 +16753,7 @@
         <v>21641.61793846002</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17238,7 +16786,7 @@
         <v>21641.61793846002</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17469,7 +17017,7 @@
         <v>13931.24643846002</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17502,7 +17050,7 @@
         <v>13931.55603846002</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17535,7 +17083,7 @@
         <v>14039.84603846002</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17568,7 +17116,7 @@
         <v>13423.54877184002</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17601,7 +17149,7 @@
         <v>13464.74877184002</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17634,7 +17182,7 @@
         <v>13468.74877184002</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17667,7 +17215,7 @@
         <v>15360.66720309002</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17700,7 +17248,7 @@
         <v>19336.54950309002</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17733,7 +17281,7 @@
         <v>19336.54950309002</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17766,7 +17314,7 @@
         <v>16959.18353119002</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17799,7 +17347,7 @@
         <v>16959.18353119002</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17832,7 +17380,7 @@
         <v>17025.31243119002</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17865,7 +17413,7 @@
         <v>17025.31243119002</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17898,7 +17446,7 @@
         <v>16783.91353119002</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17931,7 +17479,7 @@
         <v>16783.91353119002</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17964,7 +17512,7 @@
         <v>16784.91353119002</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17997,7 +17545,7 @@
         <v>16618.60293119002</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18030,7 +17578,7 @@
         <v>16498.12803119002</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18063,7 +17611,7 @@
         <v>16228.88863119002</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18096,7 +17644,7 @@
         <v>16229.16863119002</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18129,7 +17677,7 @@
         <v>16209.60743119002</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18162,7 +17710,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18195,7 +17743,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18228,7 +17776,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18261,7 +17809,7 @@
         <v>18437.91783119002</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18294,7 +17842,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18327,7 +17875,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18393,7 +17941,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18426,7 +17974,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18459,7 +18007,7 @@
         <v>17621.65123119002</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18492,7 +18040,7 @@
         <v>17687.61383119001</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18525,7 +18073,7 @@
         <v>17687.61383119001</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18558,7 +18106,7 @@
         <v>17644.09553119001</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18591,7 +18139,7 @@
         <v>17823.90663119001</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18624,7 +18172,7 @@
         <v>15623.50733119001</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18657,7 +18205,7 @@
         <v>14014.16303119001</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18690,7 +18238,7 @@
         <v>9441.556231190012</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18723,7 +18271,7 @@
         <v>9446.146731190012</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18756,7 +18304,7 @@
         <v>9445.846731190013</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18789,7 +18337,7 @@
         <v>7426.507531190013</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18822,7 +18370,7 @@
         <v>7426.507531190013</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18855,7 +18403,7 @@
         <v>7425.907531190012</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18888,7 +18436,7 @@
         <v>7425.607531190012</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18921,7 +18469,7 @@
         <v>7425.607531190012</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18954,7 +18502,7 @@
         <v>7459.426831190012</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18987,7 +18535,7 @@
         <v>8404.426831190012</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19020,7 +18568,7 @@
         <v>7141.406031190012</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19053,7 +18601,7 @@
         <v>7141.406031190012</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19086,7 +18634,7 @@
         <v>7250.007331190012</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19119,7 +18667,7 @@
         <v>7250.007331190012</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19152,7 +18700,7 @@
         <v>7250.007331190012</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19185,7 +18733,7 @@
         <v>7250.007331190012</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19218,7 +18766,7 @@
         <v>7449.689377640012</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19251,7 +18799,7 @@
         <v>7042.308377640012</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19284,7 +18832,7 @@
         <v>7221.068277640012</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19317,7 +18865,7 @@
         <v>7154.068277640012</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19350,7 +18898,7 @@
         <v>7184.358277640012</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19383,7 +18931,7 @@
         <v>7514.035277640011</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19416,7 +18964,7 @@
         <v>7514.035277640011</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19449,7 +18997,7 @@
         <v>7514.315277640011</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19482,7 +19030,7 @@
         <v>333.030577640011</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19515,7 +19063,7 @@
         <v>4581.605277640011</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19548,7 +19096,7 @@
         <v>4581.605277640011</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19581,7 +19129,7 @@
         <v>4540.862677640011</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19614,7 +19162,7 @@
         <v>4540.862677640011</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19647,7 +19195,7 @@
         <v>4543.526577640011</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19680,7 +19228,7 @@
         <v>4544.774677640011</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19746,7 +19294,7 @@
         <v>4438.94797764001</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19779,7 +19327,7 @@
         <v>4613.38487764001</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19812,7 +19360,7 @@
         <v>6132.06027764001</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19845,7 +19393,7 @@
         <v>6107.36547764001</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19878,7 +19426,7 @@
         <v>6067.24357764001</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19911,7 +19459,7 @@
         <v>6168.860777640009</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -22034,6 +21582,6 @@
       <c r="M596" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest HC.xlsx
+++ b/BackTest/2020-01-16 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -890,11 +890,9 @@
         <v>5185.70007056</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>1469</v>
       </c>
@@ -931,11 +929,9 @@
         <v>5184.20007056</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>1469</v>
       </c>
@@ -972,11 +968,9 @@
         <v>5225.460170560001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>1469</v>
       </c>
@@ -1013,11 +1007,9 @@
         <v>5037.76887056</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>1469</v>
       </c>
@@ -1054,11 +1046,9 @@
         <v>5033.76887056</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>1469</v>
       </c>
@@ -1095,11 +1085,9 @@
         <v>5030.51887056</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>1469</v>
       </c>
@@ -1218,11 +1206,9 @@
         <v>5819.536570560001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>1469</v>
       </c>
@@ -1259,11 +1245,9 @@
         <v>6926.259170560001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>1469</v>
       </c>
@@ -1300,11 +1284,9 @@
         <v>7332.06387056</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>1469</v>
       </c>
@@ -1341,11 +1323,9 @@
         <v>6105.16687056</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>1469</v>
       </c>
@@ -1382,11 +1362,9 @@
         <v>6073.266870560001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>1469</v>
       </c>
@@ -1423,11 +1401,9 @@
         <v>6063.266870560001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>1469</v>
       </c>
@@ -1464,11 +1440,9 @@
         <v>6035.326870560001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>1469</v>
       </c>
@@ -1505,11 +1479,9 @@
         <v>6010.776970560001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>1469</v>
       </c>
@@ -1546,11 +1518,9 @@
         <v>5975.776970560001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>1469</v>
       </c>
@@ -1587,11 +1557,9 @@
         <v>6002.604603020001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>1469</v>
       </c>
@@ -1628,11 +1596,9 @@
         <v>5975.777003020002</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>1469</v>
       </c>
@@ -1669,11 +1635,9 @@
         <v>5977.177003020001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>1469</v>
       </c>
@@ -1710,11 +1674,9 @@
         <v>5977.807403020001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>1469</v>
       </c>
@@ -1751,11 +1713,9 @@
         <v>5977.807403020001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>1469</v>
       </c>
@@ -1792,11 +1752,9 @@
         <v>5955.107403020002</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>1469</v>
       </c>
@@ -1833,11 +1791,9 @@
         <v>5955.107503020002</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>1469</v>
       </c>
@@ -1874,11 +1830,9 @@
         <v>6042.736703020002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>1469</v>
       </c>
@@ -1915,11 +1869,9 @@
         <v>6043.736703020002</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>1469</v>
       </c>
@@ -1956,11 +1908,9 @@
         <v>6044.236703020002</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>1469</v>
       </c>
@@ -1997,11 +1947,9 @@
         <v>6044.236703020002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1492</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>1469</v>
       </c>
@@ -2038,11 +1986,9 @@
         <v>6074.163503020002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1492</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>1469</v>
       </c>
@@ -2079,11 +2025,9 @@
         <v>6327.977703020002</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>1469</v>
       </c>
@@ -2120,11 +2064,9 @@
         <v>6343.294603020002</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>1469</v>
       </c>
@@ -2161,11 +2103,9 @@
         <v>6342.664203020002</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1499</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>1469</v>
       </c>
@@ -2202,11 +2142,9 @@
         <v>6383.924303020002</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>1469</v>
       </c>
@@ -2243,11 +2181,9 @@
         <v>6384.274303020003</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1492</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>1469</v>
       </c>
@@ -2284,11 +2220,9 @@
         <v>6384.274303020003</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>1469</v>
       </c>
@@ -2325,11 +2259,9 @@
         <v>6384.274303020003</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>1469</v>
       </c>
@@ -2366,11 +2298,9 @@
         <v>6384.274303020003</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>1469</v>
       </c>
@@ -2407,11 +2337,9 @@
         <v>6384.274303020003</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>1469</v>
       </c>
@@ -2448,11 +2376,9 @@
         <v>7227.338303020003</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>1469</v>
       </c>
@@ -2489,11 +2415,9 @@
         <v>7227.338303020003</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>1469</v>
       </c>
@@ -2530,11 +2454,9 @@
         <v>8495.877903020002</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>1469</v>
       </c>
@@ -2571,11 +2493,9 @@
         <v>8495.877903020002</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>1469</v>
       </c>
@@ -3236,11 +3156,9 @@
         <v>4343.542891500003</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>1469</v>
       </c>
@@ -3277,11 +3195,9 @@
         <v>3251.926991500003</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1489</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>1469</v>
       </c>
@@ -3318,11 +3234,9 @@
         <v>3325.874391500003</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>1469</v>
       </c>
@@ -3359,11 +3273,9 @@
         <v>169.3492915000033</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>1469</v>
       </c>
@@ -3634,11 +3546,9 @@
         <v>617.4569703800034</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>1469</v>
       </c>
@@ -3675,11 +3585,9 @@
         <v>748.7767340000034</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1516</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>1469</v>
       </c>
@@ -3716,11 +3624,9 @@
         <v>735.9192340000035</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>1469</v>
       </c>
@@ -3796,11 +3702,9 @@
         <v>-263.4528659999966</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>1469</v>
       </c>
@@ -3837,11 +3741,9 @@
         <v>-263.4528659999966</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>1469</v>
       </c>
@@ -3917,11 +3819,9 @@
         <v>-312.8559659999966</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1498</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>1469</v>
       </c>
@@ -3958,11 +3858,9 @@
         <v>-312.8559659999966</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1498</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>1469</v>
       </c>
@@ -3999,11 +3897,9 @@
         <v>-1216.377365999997</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1498</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>1469</v>
       </c>
@@ -4040,11 +3936,9 @@
         <v>-1216.377365999997</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>1469</v>
       </c>
@@ -4081,11 +3975,9 @@
         <v>-1270.543065999997</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>1469</v>
       </c>
@@ -4122,11 +4014,9 @@
         <v>-1242.099565999996</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1493</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>1469</v>
       </c>
@@ -4163,11 +4053,9 @@
         <v>-1241.099565999996</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>1469</v>
       </c>
@@ -4204,11 +4092,9 @@
         <v>-1241.099565999996</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>1469</v>
       </c>
@@ -4245,11 +4131,9 @@
         <v>-1190.751765999996</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>1469</v>
       </c>
@@ -4286,11 +4170,9 @@
         <v>-1190.751765999996</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>1469</v>
       </c>
@@ -4327,11 +4209,9 @@
         <v>-474.4888659999965</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>1469</v>
       </c>
@@ -4368,11 +4248,9 @@
         <v>-474.4888659999965</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>1469</v>
       </c>
@@ -4448,11 +4326,9 @@
         <v>-474.4888659999965</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>1469</v>
       </c>
@@ -5152,11 +5028,9 @@
         <v>-1845.245665999996</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>1469</v>
       </c>
@@ -5193,11 +5067,9 @@
         <v>-1845.245665999996</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
         <v>1469</v>
       </c>
@@ -5234,11 +5106,9 @@
         <v>-1845.245665999996</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
         <v>1469</v>
       </c>
@@ -5275,11 +5145,9 @@
         <v>-1845.245665999996</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
         <v>1469</v>
       </c>
@@ -5316,11 +5184,9 @@
         <v>-1803.359965999996</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
         <v>1469</v>
       </c>
@@ -5552,7 +5418,7 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
@@ -5560,13 +5426,15 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>1.087579986385296</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5591,17 +5459,11 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5630,17 +5492,11 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5669,17 +5525,11 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5708,17 +5558,11 @@
         <v>-412.1667659999955</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5747,17 +5591,11 @@
         <v>-1616.193865999996</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5789,14 +5627,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5825,19 +5657,11 @@
         <v>-2040.504265999996</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1532</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5866,17 +5690,11 @@
         <v>-2063.826765999996</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5905,19 +5723,11 @@
         <v>-2639.747565999995</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1545</v>
-      </c>
-      <c r="J138" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5946,19 +5756,11 @@
         <v>-3049.566965999995</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1532</v>
-      </c>
-      <c r="J139" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5987,19 +5789,11 @@
         <v>-3022.731765999995</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1525</v>
-      </c>
-      <c r="J140" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6028,19 +5822,11 @@
         <v>-3048.525465999996</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1538</v>
-      </c>
-      <c r="J141" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6069,19 +5855,11 @@
         <v>-2920.907865999995</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1526</v>
-      </c>
-      <c r="J142" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6110,19 +5888,11 @@
         <v>-2912.177865999995</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1529</v>
-      </c>
-      <c r="J143" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6151,19 +5921,11 @@
         <v>-2891.847965999995</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1541</v>
-      </c>
-      <c r="J144" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6192,19 +5954,11 @@
         <v>-3136.424365999995</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1542</v>
-      </c>
-      <c r="J145" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6233,19 +5987,11 @@
         <v>-3111.404365999995</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1532</v>
-      </c>
-      <c r="J146" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6274,19 +6020,11 @@
         <v>-3101.404365999995</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1542</v>
-      </c>
-      <c r="J147" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6315,19 +6053,11 @@
         <v>-3101.404365999995</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1549</v>
-      </c>
-      <c r="J148" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6359,14 +6089,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6395,19 +6119,11 @@
         <v>-3101.016065999995</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1561</v>
-      </c>
-      <c r="J150" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6439,14 +6155,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6478,14 +6188,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6517,14 +6221,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6556,14 +6254,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6595,14 +6287,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6634,14 +6320,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6673,14 +6353,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6712,14 +6386,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6751,14 +6419,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6790,14 +6452,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6829,14 +6485,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6868,14 +6518,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6907,14 +6551,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6946,14 +6584,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6982,19 +6614,11 @@
         <v>-5054.724365999995</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1562</v>
-      </c>
-      <c r="J165" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7023,19 +6647,11 @@
         <v>-4572.103665999995</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1570</v>
-      </c>
-      <c r="J166" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7064,19 +6680,11 @@
         <v>-4355.368665999995</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1598</v>
-      </c>
-      <c r="J167" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7108,14 +6716,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7144,19 +6746,11 @@
         <v>-4355.368665999995</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1600</v>
-      </c>
-      <c r="J169" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7185,19 +6779,11 @@
         <v>-4355.368665999995</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1600</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7229,14 +6815,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7268,14 +6848,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7307,14 +6881,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7346,14 +6914,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7385,14 +6947,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7424,14 +6980,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7463,14 +7013,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7502,14 +7046,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7541,14 +7079,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7580,14 +7112,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7619,14 +7145,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7655,17 +7175,11 @@
         <v>2587.655634000005</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7694,17 +7208,11 @@
         <v>3463.426934000005</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7733,17 +7241,11 @@
         <v>3664.913534000005</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7772,17 +7274,11 @@
         <v>3741.778934000005</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7811,17 +7307,11 @@
         <v>11038.42135183001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7850,17 +7340,11 @@
         <v>5894.029047270005</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7889,17 +7373,11 @@
         <v>8737.022747270006</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7928,17 +7406,11 @@
         <v>9219.399647270006</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7967,17 +7439,11 @@
         <v>10017.01264727</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -8009,14 +7475,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8048,14 +7508,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8087,14 +7541,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8126,14 +7574,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8165,14 +7607,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8204,14 +7640,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8243,14 +7673,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8282,14 +7706,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8321,14 +7739,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8360,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8399,14 +7805,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8438,14 +7838,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8477,14 +7871,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8516,14 +7904,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8555,14 +7937,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8594,14 +7970,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8633,14 +8003,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8672,14 +8036,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8711,14 +8069,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8750,14 +8102,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8789,14 +8135,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8828,14 +8168,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8867,14 +8201,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8906,14 +8234,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8945,14 +8267,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8984,14 +8300,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -9023,14 +8333,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9059,17 +8363,11 @@
         <v>22803.62757806001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9098,17 +8396,11 @@
         <v>22447.12727806001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9137,17 +8429,11 @@
         <v>22436.03717806001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9176,17 +8462,11 @@
         <v>22416.03717806001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9218,14 +8498,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9254,23 +8528,15 @@
         <v>24243.76037806001</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
-        <v>1.190371000680735</v>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9361,7 +8627,7 @@
         <v>24719.93487806001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9394,7 +8660,7 @@
         <v>25390.88067806001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9427,7 +8693,7 @@
         <v>27680.08657806001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9460,7 +8726,7 @@
         <v>27677.08657806001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9493,7 +8759,7 @@
         <v>27677.08657806001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9526,7 +8792,7 @@
         <v>26969.91177806001</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9559,7 +8825,7 @@
         <v>25624.37097806001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9691,7 +8957,7 @@
         <v>22299.18257806001</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9724,7 +8990,7 @@
         <v>21534.87067806001</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9757,7 +9023,7 @@
         <v>23211.59267806001</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9790,7 +9056,7 @@
         <v>22230.03147806001</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9823,7 +9089,7 @@
         <v>22159.15147806001</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9856,7 +9122,7 @@
         <v>22670.27299276001</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9889,7 +9155,7 @@
         <v>22667.84299276001</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9922,7 +9188,7 @@
         <v>22667.84299276001</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9955,7 +9221,7 @@
         <v>22602.17349276001</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -10021,7 +9287,7 @@
         <v>22691.02639276001</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10054,7 +9320,7 @@
         <v>22649.01649276001</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10087,7 +9353,7 @@
         <v>22548.29349276</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10120,7 +9386,7 @@
         <v>22556.34559276</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10153,7 +9419,7 @@
         <v>22527.74759276</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10186,7 +9452,7 @@
         <v>22295.07809276</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10219,7 +9485,7 @@
         <v>22290.07809276</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10252,7 +9518,7 @@
         <v>22375.60039276</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10285,7 +9551,7 @@
         <v>22223.12429276</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10318,7 +9584,7 @@
         <v>22318.67329276</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10351,7 +9617,7 @@
         <v>22294.37679276</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10384,7 +9650,7 @@
         <v>22100.54269276</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10417,7 +9683,7 @@
         <v>21973.67659276</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10450,7 +9716,7 @@
         <v>21457.13409276</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10483,7 +9749,7 @@
         <v>21374.44419276</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10516,7 +9782,7 @@
         <v>20847.16559276</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10549,7 +9815,7 @@
         <v>20312.23829276</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10582,7 +9848,7 @@
         <v>20992.47639276</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10615,7 +9881,7 @@
         <v>20941.42609276</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10648,7 +9914,7 @@
         <v>19929.87219276</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10681,7 +9947,7 @@
         <v>20157.23659276</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10714,7 +9980,7 @@
         <v>20166.23659276</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10747,7 +10013,7 @@
         <v>19591.67539276</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10780,7 +10046,7 @@
         <v>19592.47539276</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10813,7 +10079,7 @@
         <v>19640.67889276</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10846,7 +10112,7 @@
         <v>19640.67889276</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10879,7 +10145,7 @@
         <v>19646.46509276</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10912,7 +10178,7 @@
         <v>18888.02859276</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10945,7 +10211,7 @@
         <v>18123.78419276</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10978,7 +10244,7 @@
         <v>18349.98919276</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11011,7 +10277,7 @@
         <v>18279.97119276</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11044,7 +10310,7 @@
         <v>18043.55879276</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11077,7 +10343,7 @@
         <v>14267.16449276</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11110,7 +10376,7 @@
         <v>13696.53519276</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11143,7 +10409,7 @@
         <v>13700.53519276</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11209,7 +10475,7 @@
         <v>14198.50009276</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -12034,7 +11300,7 @@
         <v>17298.52039275999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12067,7 +11333,7 @@
         <v>18395.48029276</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12100,7 +11366,7 @@
         <v>19164.34299276</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12133,7 +11399,7 @@
         <v>19043.81349276</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12166,7 +11432,7 @@
         <v>19103.22969276</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12199,7 +11465,7 @@
         <v>19103.22969276</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12232,7 +11498,7 @@
         <v>19137.76579276</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12265,7 +11531,7 @@
         <v>18247.00479276</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12298,7 +11564,7 @@
         <v>18281.45569276</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12331,7 +11597,7 @@
         <v>18281.45569276</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12364,7 +11630,7 @@
         <v>18808.34999276</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12397,7 +11663,7 @@
         <v>18720.34999276</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12430,7 +11696,7 @@
         <v>18723.84999276</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12463,7 +11729,7 @@
         <v>18723.84999276</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12496,7 +11762,7 @@
         <v>18723.22509276</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12529,7 +11795,7 @@
         <v>18708.22509276</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12562,7 +11828,7 @@
         <v>18705.82509276</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12595,7 +11861,7 @@
         <v>18615.07509276</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12628,7 +11894,7 @@
         <v>18610.78629276</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12661,7 +11927,7 @@
         <v>18638.08629276</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12694,7 +11960,7 @@
         <v>18428.51519276</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12727,7 +11993,7 @@
         <v>17937.61829276</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12760,7 +12026,7 @@
         <v>17938.61829276</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12793,7 +12059,7 @@
         <v>17425.13829276</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12826,7 +12092,7 @@
         <v>16903.04949276</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12859,7 +12125,7 @@
         <v>16904.13829276</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12892,7 +12158,7 @@
         <v>16747.00329276</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12925,7 +12191,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12958,7 +12224,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12991,7 +12257,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13024,7 +12290,7 @@
         <v>16982.45569276</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13057,7 +12323,7 @@
         <v>17132.4711867</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13090,7 +12356,7 @@
         <v>16679.0199867</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13123,7 +12389,7 @@
         <v>16680.0199867</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13156,7 +12422,7 @@
         <v>17816.3048867</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13189,7 +12455,7 @@
         <v>18043.4267884</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13222,7 +12488,7 @@
         <v>17985.1139884</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13387,7 +12653,7 @@
         <v>18998.15728840001</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13420,7 +12686,7 @@
         <v>18997.15728840001</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13453,7 +12719,7 @@
         <v>18998.15728840001</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13486,7 +12752,7 @@
         <v>19045.6889884</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13552,7 +12818,7 @@
         <v>19036.1889884</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13585,7 +12851,7 @@
         <v>19016.1889884</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13882,7 +13148,7 @@
         <v>20830.25521813001</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13915,7 +13181,7 @@
         <v>20830.25521813001</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13948,7 +13214,7 @@
         <v>20976.77381813</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13981,7 +13247,7 @@
         <v>20976.77381813</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14014,7 +13280,7 @@
         <v>20948.47381813001</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14047,7 +13313,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14080,7 +13346,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14113,7 +13379,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14146,7 +13412,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14179,7 +13445,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14212,7 +13478,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14245,7 +13511,7 @@
         <v>21067.19541813001</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14278,7 +13544,7 @@
         <v>19911.84381813001</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14311,7 +13577,7 @@
         <v>19799.45771813001</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14344,7 +13610,7 @@
         <v>19799.45771813001</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14377,7 +13643,7 @@
         <v>19709.91271813001</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14410,7 +13676,7 @@
         <v>19709.91271813001</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14443,7 +13709,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14542,7 +13808,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14575,7 +13841,7 @@
         <v>19966.03161813001</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14641,7 +13907,7 @@
         <v>19913.36541813001</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14707,7 +13973,7 @@
         <v>19919.36541813001</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14740,7 +14006,7 @@
         <v>19865.39661813001</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14773,7 +14039,7 @@
         <v>19865.39661813001</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14806,7 +14072,7 @@
         <v>19871.39661813001</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14839,7 +14105,7 @@
         <v>19871.39661813001</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14872,7 +14138,7 @@
         <v>19998.66198337001</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14905,7 +14171,7 @@
         <v>18461.17318337001</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14938,7 +14204,7 @@
         <v>19440.06878337001</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14971,7 +14237,7 @@
         <v>19212.94688337002</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15004,7 +14270,7 @@
         <v>19213.94688337002</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15037,7 +14303,7 @@
         <v>17936.97678337002</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15070,7 +14336,7 @@
         <v>18995.26768337002</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15103,7 +14369,7 @@
         <v>18995.26768337002</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15136,7 +14402,7 @@
         <v>20228.13928337002</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15169,7 +14435,7 @@
         <v>21681.11716462002</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15202,7 +14468,7 @@
         <v>21681.11716462002</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15235,7 +14501,7 @@
         <v>21681.11716462002</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15268,7 +14534,7 @@
         <v>21681.11716462002</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15301,7 +14567,7 @@
         <v>21806.11716462002</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15334,7 +14600,7 @@
         <v>21799.11716462002</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15367,7 +14633,7 @@
         <v>22668.08446462002</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15400,7 +14666,7 @@
         <v>22668.08446462002</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15433,7 +14699,7 @@
         <v>24278.31436462002</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15466,7 +14732,7 @@
         <v>24278.31436462002</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15499,7 +14765,7 @@
         <v>24490.66276462001</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15532,7 +14798,7 @@
         <v>24512.73251876001</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15565,7 +14831,7 @@
         <v>24545.51011876002</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15598,7 +14864,7 @@
         <v>24545.51011876002</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15631,7 +14897,7 @@
         <v>24654.72281876002</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15664,7 +14930,7 @@
         <v>28377.80421876001</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15697,7 +14963,7 @@
         <v>28394.83021876002</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15730,7 +14996,7 @@
         <v>27360.48361876002</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15763,7 +15029,7 @@
         <v>23000.95261876002</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15796,7 +15062,7 @@
         <v>23001.95261876002</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15829,7 +15095,7 @@
         <v>21548.97481876002</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15862,7 +15128,7 @@
         <v>21883.70941876002</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15895,7 +15161,7 @@
         <v>21894.70941876002</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15928,7 +15194,7 @@
         <v>22691.05998579002</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15961,7 +15227,7 @@
         <v>22114.78618579002</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15994,7 +15260,7 @@
         <v>22344.24008579002</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16027,7 +15293,7 @@
         <v>22356.21330007002</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16060,7 +15326,7 @@
         <v>22270.85283542002</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16093,7 +15359,7 @@
         <v>22963.74063542002</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16126,7 +15392,7 @@
         <v>23000.74063542002</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16159,7 +15425,7 @@
         <v>23014.73680732002</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16192,7 +15458,7 @@
         <v>22991.18650732002</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16225,7 +15491,7 @@
         <v>21181.60090732002</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16258,7 +15524,7 @@
         <v>21339.99140732002</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16291,7 +15557,7 @@
         <v>21256.78750732002</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16324,7 +15590,7 @@
         <v>21298.14120732002</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16357,7 +15623,7 @@
         <v>21270.10450732002</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16390,7 +15656,7 @@
         <v>21172.51213846002</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16423,7 +15689,7 @@
         <v>21172.51213846002</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16456,7 +15722,7 @@
         <v>20705.60703846002</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16489,7 +15755,7 @@
         <v>20705.60703846002</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16522,7 +15788,7 @@
         <v>20723.62703846002</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16555,7 +15821,7 @@
         <v>22659.44413846002</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16588,7 +15854,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16621,7 +15887,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16654,7 +15920,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16687,7 +15953,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16720,7 +15986,7 @@
         <v>21600.26433846002</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16753,7 +16019,7 @@
         <v>21641.61793846002</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17017,7 +16283,7 @@
         <v>13931.24643846002</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17050,7 +16316,7 @@
         <v>13931.55603846002</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17083,7 +16349,7 @@
         <v>14039.84603846002</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17116,7 +16382,7 @@
         <v>13423.54877184002</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17149,7 +16415,7 @@
         <v>13464.74877184002</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17182,7 +16448,7 @@
         <v>13468.74877184002</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17215,7 +16481,7 @@
         <v>15360.66720309002</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17248,7 +16514,7 @@
         <v>19336.54950309002</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17281,7 +16547,7 @@
         <v>19336.54950309002</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17314,7 +16580,7 @@
         <v>16959.18353119002</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17347,7 +16613,7 @@
         <v>16959.18353119002</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17380,7 +16646,7 @@
         <v>17025.31243119002</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17413,7 +16679,7 @@
         <v>17025.31243119002</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17446,7 +16712,7 @@
         <v>16783.91353119002</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17479,7 +16745,7 @@
         <v>16783.91353119002</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17512,7 +16778,7 @@
         <v>16784.91353119002</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17545,7 +16811,7 @@
         <v>16618.60293119002</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17578,7 +16844,7 @@
         <v>16498.12803119002</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17611,7 +16877,7 @@
         <v>16228.88863119002</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17644,7 +16910,7 @@
         <v>16229.16863119002</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17677,7 +16943,7 @@
         <v>16209.60743119002</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17710,7 +16976,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17743,7 +17009,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17776,7 +17042,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17809,7 +17075,7 @@
         <v>18437.91783119002</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17842,7 +17108,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17875,7 +17141,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17941,7 +17207,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17974,7 +17240,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18007,7 +17273,7 @@
         <v>17621.65123119002</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18040,7 +17306,7 @@
         <v>17687.61383119001</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18073,7 +17339,7 @@
         <v>17687.61383119001</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18106,7 +17372,7 @@
         <v>17644.09553119001</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18139,7 +17405,7 @@
         <v>17823.90663119001</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18172,7 +17438,7 @@
         <v>15623.50733119001</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18205,7 +17471,7 @@
         <v>14014.16303119001</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18238,7 +17504,7 @@
         <v>9441.556231190012</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18271,7 +17537,7 @@
         <v>9446.146731190012</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18304,7 +17570,7 @@
         <v>9445.846731190013</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18337,7 +17603,7 @@
         <v>7426.507531190013</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18370,7 +17636,7 @@
         <v>7426.507531190013</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18403,7 +17669,7 @@
         <v>7425.907531190012</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18436,7 +17702,7 @@
         <v>7425.607531190012</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18469,7 +17735,7 @@
         <v>7425.607531190012</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18502,7 +17768,7 @@
         <v>7459.426831190012</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18535,7 +17801,7 @@
         <v>8404.426831190012</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18568,7 +17834,7 @@
         <v>7141.406031190012</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18601,7 +17867,7 @@
         <v>7141.406031190012</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18634,7 +17900,7 @@
         <v>7250.007331190012</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18667,7 +17933,7 @@
         <v>7250.007331190012</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18700,7 +17966,7 @@
         <v>7250.007331190012</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18733,7 +17999,7 @@
         <v>7250.007331190012</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18766,7 +18032,7 @@
         <v>7449.689377640012</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18799,7 +18065,7 @@
         <v>7042.308377640012</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18832,7 +18098,7 @@
         <v>7221.068277640012</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18865,7 +18131,7 @@
         <v>7154.068277640012</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18898,7 +18164,7 @@
         <v>7184.358277640012</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18931,7 +18197,7 @@
         <v>7514.035277640011</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18964,7 +18230,7 @@
         <v>7514.035277640011</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18997,7 +18263,7 @@
         <v>7514.315277640011</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19030,7 +18296,7 @@
         <v>333.030577640011</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19063,7 +18329,7 @@
         <v>4581.605277640011</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19096,7 +18362,7 @@
         <v>4581.605277640011</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19129,7 +18395,7 @@
         <v>4540.862677640011</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19162,7 +18428,7 @@
         <v>4540.862677640011</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19195,7 +18461,7 @@
         <v>4543.526577640011</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19228,7 +18494,7 @@
         <v>4544.774677640011</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19294,7 +18560,7 @@
         <v>4438.94797764001</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19327,7 +18593,7 @@
         <v>4613.38487764001</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19360,7 +18626,7 @@
         <v>6132.06027764001</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19393,7 +18659,7 @@
         <v>6107.36547764001</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19426,7 +18692,7 @@
         <v>6067.24357764001</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19459,7 +18725,7 @@
         <v>6168.860777640009</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -21582,6 +20848,6 @@
       <c r="M596" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest HC.xlsx
+++ b/BackTest/2020-01-16 BackTest HC.xlsx
@@ -890,9 +890,11 @@
         <v>5185.70007056</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1509</v>
+      </c>
       <c r="J13" t="n">
         <v>1469</v>
       </c>
@@ -929,9 +931,11 @@
         <v>5184.20007056</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1510</v>
+      </c>
       <c r="J14" t="n">
         <v>1469</v>
       </c>
@@ -968,9 +972,11 @@
         <v>5225.460170560001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1488</v>
+      </c>
       <c r="J15" t="n">
         <v>1469</v>
       </c>
@@ -1007,9 +1013,11 @@
         <v>5037.76887056</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1510</v>
+      </c>
       <c r="J16" t="n">
         <v>1469</v>
       </c>
@@ -1046,9 +1054,11 @@
         <v>5033.76887056</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1474</v>
+      </c>
       <c r="J17" t="n">
         <v>1469</v>
       </c>
@@ -1085,9 +1095,11 @@
         <v>5030.51887056</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1452</v>
+      </c>
       <c r="J18" t="n">
         <v>1469</v>
       </c>
@@ -1206,9 +1218,11 @@
         <v>5819.536570560001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1466</v>
+      </c>
       <c r="J21" t="n">
         <v>1469</v>
       </c>
@@ -1245,9 +1259,11 @@
         <v>6926.259170560001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1466</v>
+      </c>
       <c r="J22" t="n">
         <v>1469</v>
       </c>
@@ -1284,9 +1300,11 @@
         <v>7332.06387056</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1467</v>
+      </c>
       <c r="J23" t="n">
         <v>1469</v>
       </c>
@@ -5418,7 +5436,7 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
@@ -5426,15 +5444,13 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.087579986385296</v>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5459,11 +5475,17 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5492,11 +5514,17 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5525,11 +5553,17 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5558,11 +5592,17 @@
         <v>-412.1667659999955</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5591,11 +5631,17 @@
         <v>-1616.193865999996</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5627,8 +5673,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5657,11 +5709,17 @@
         <v>-2040.504265999996</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5690,11 +5748,17 @@
         <v>-2063.826765999996</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5726,8 +5790,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5759,8 +5829,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5792,8 +5868,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5825,8 +5907,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5858,8 +5946,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5891,8 +5985,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5924,8 +6024,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5957,8 +6063,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5990,8 +6102,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6023,8 +6141,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6056,8 +6180,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6089,8 +6219,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6122,8 +6258,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6155,8 +6297,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6188,8 +6336,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6221,8 +6375,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6254,8 +6414,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6287,8 +6453,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6320,8 +6492,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6353,8 +6531,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6386,8 +6570,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6419,8 +6609,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6452,8 +6648,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6485,8 +6687,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6518,8 +6726,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6551,8 +6765,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6584,8 +6804,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6843,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6650,8 +6882,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6683,8 +6921,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6716,8 +6960,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6749,8 +6999,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6782,8 +7038,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6815,8 +7077,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6848,8 +7116,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6881,8 +7155,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6914,8 +7194,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6947,8 +7233,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6980,8 +7272,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7013,8 +7311,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7046,8 +7350,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7079,8 +7389,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7112,8 +7428,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7145,8 +7467,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7175,11 +7503,17 @@
         <v>2587.655634000005</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7208,11 +7542,17 @@
         <v>3463.426934000005</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7241,11 +7581,17 @@
         <v>3664.913534000005</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7274,11 +7620,17 @@
         <v>3741.778934000005</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7307,11 +7659,17 @@
         <v>11038.42135183001</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7340,11 +7698,17 @@
         <v>5894.029047270005</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7373,11 +7737,17 @@
         <v>8737.022747270006</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7406,11 +7776,17 @@
         <v>9219.399647270006</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7439,11 +7815,17 @@
         <v>10017.01264727</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7475,8 +7857,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7508,8 +7896,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7541,8 +7935,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7574,8 +7974,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7607,8 +8013,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7640,8 +8052,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7673,8 +8091,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7706,8 +8130,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7739,8 +8169,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +8208,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7805,8 +8247,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7838,8 +8286,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7871,8 +8325,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7904,8 +8364,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7937,8 +8403,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7970,8 +8442,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8000,15 +8478,23 @@
         <v>17557.09999508001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>1.277505105513955</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8033,7 +8519,7 @@
         <v>18948.06939508001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8066,7 +8552,7 @@
         <v>17660.75919508001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8132,7 +8618,7 @@
         <v>20585.18207806001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8165,7 +8651,7 @@
         <v>20565.18207806001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8198,7 +8684,7 @@
         <v>21471.65067806001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8231,7 +8717,7 @@
         <v>21458.08877806001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8264,7 +8750,7 @@
         <v>18746.60817806001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8297,7 +8783,7 @@
         <v>22933.32727806001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8330,7 +8816,7 @@
         <v>22594.21687806001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8495,7 +8981,7 @@
         <v>22333.91997806001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8528,7 +9014,7 @@
         <v>24243.76037806001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8561,7 +9047,7 @@
         <v>24116.53897806001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8594,7 +9080,7 @@
         <v>24719.93487806001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8627,7 +9113,7 @@
         <v>24719.93487806001</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8660,7 +9146,7 @@
         <v>25390.88067806001</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8825,7 +9311,7 @@
         <v>25624.37097806001</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8858,7 +9344,7 @@
         <v>25627.29077806001</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8924,7 +9410,7 @@
         <v>24023.34557806001</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9056,7 +9542,7 @@
         <v>22230.03147806001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9089,7 +9575,7 @@
         <v>22159.15147806001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9122,7 +9608,7 @@
         <v>22670.27299276001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9155,7 +9641,7 @@
         <v>22667.84299276001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9188,7 +9674,7 @@
         <v>22667.84299276001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9320,7 +9806,7 @@
         <v>22649.01649276001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9353,7 +9839,7 @@
         <v>22548.29349276</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9386,7 +9872,7 @@
         <v>22556.34559276</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9419,7 +9905,7 @@
         <v>22527.74759276</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9452,7 +9938,7 @@
         <v>22295.07809276</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9485,7 +9971,7 @@
         <v>22290.07809276</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -11300,7 +11786,7 @@
         <v>17298.52039275999</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11333,7 +11819,7 @@
         <v>18395.48029276</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11366,7 +11852,7 @@
         <v>19164.34299276</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11399,7 +11885,7 @@
         <v>19043.81349276</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11432,7 +11918,7 @@
         <v>19103.22969276</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11465,7 +11951,7 @@
         <v>19103.22969276</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11498,7 +11984,7 @@
         <v>19137.76579276</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11531,7 +12017,7 @@
         <v>18247.00479276</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11564,7 +12050,7 @@
         <v>18281.45569276</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11597,7 +12083,7 @@
         <v>18281.45569276</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11630,7 +12116,7 @@
         <v>18808.34999276</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11663,7 +12149,7 @@
         <v>18720.34999276</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11696,7 +12182,7 @@
         <v>18723.84999276</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11729,7 +12215,7 @@
         <v>18723.84999276</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11762,7 +12248,7 @@
         <v>18723.22509276</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11795,7 +12281,7 @@
         <v>18708.22509276</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11828,7 +12314,7 @@
         <v>18705.82509276</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11861,7 +12347,7 @@
         <v>18615.07509276</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11894,7 +12380,7 @@
         <v>18610.78629276</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11927,7 +12413,7 @@
         <v>18638.08629276</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11960,7 +12446,7 @@
         <v>18428.51519276</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11993,7 +12479,7 @@
         <v>17937.61829276</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12026,7 +12512,7 @@
         <v>17938.61829276</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12059,7 +12545,7 @@
         <v>17425.13829276</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12092,7 +12578,7 @@
         <v>16903.04949276</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12125,7 +12611,7 @@
         <v>16904.13829276</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12158,7 +12644,7 @@
         <v>16747.00329276</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12191,7 +12677,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12224,7 +12710,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12257,7 +12743,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12290,7 +12776,7 @@
         <v>16982.45569276</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12323,7 +12809,7 @@
         <v>17132.4711867</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12356,7 +12842,7 @@
         <v>16679.0199867</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12389,7 +12875,7 @@
         <v>16680.0199867</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12422,7 +12908,7 @@
         <v>17816.3048867</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12455,7 +12941,7 @@
         <v>18043.4267884</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12488,7 +12974,7 @@
         <v>17985.1139884</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12653,7 +13139,7 @@
         <v>18998.15728840001</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12686,7 +13172,7 @@
         <v>18997.15728840001</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12719,7 +13205,7 @@
         <v>18998.15728840001</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12752,7 +13238,7 @@
         <v>19045.6889884</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12818,7 +13304,7 @@
         <v>19036.1889884</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12851,7 +13337,7 @@
         <v>19016.1889884</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12950,7 +13436,7 @@
         <v>19092.17811813</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13148,7 +13634,7 @@
         <v>20830.25521813001</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13181,7 +13667,7 @@
         <v>20830.25521813001</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13214,7 +13700,7 @@
         <v>20976.77381813</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13247,7 +13733,7 @@
         <v>20976.77381813</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13280,7 +13766,7 @@
         <v>20948.47381813001</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13313,7 +13799,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13346,7 +13832,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13379,7 +13865,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13412,7 +13898,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13445,7 +13931,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13478,7 +13964,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13511,7 +13997,7 @@
         <v>21067.19541813001</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13544,7 +14030,7 @@
         <v>19911.84381813001</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13577,7 +14063,7 @@
         <v>19799.45771813001</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13610,7 +14096,7 @@
         <v>19799.45771813001</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13643,7 +14129,7 @@
         <v>19709.91271813001</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13676,7 +14162,7 @@
         <v>19709.91271813001</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13709,7 +14195,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13742,7 +14228,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13808,7 +14294,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13841,7 +14327,7 @@
         <v>19966.03161813001</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13907,7 +14393,7 @@
         <v>19913.36541813001</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14600,7 +15086,7 @@
         <v>21799.11716462002</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14633,7 +15119,7 @@
         <v>22668.08446462002</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14666,7 +15152,7 @@
         <v>22668.08446462002</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14699,7 +15185,7 @@
         <v>24278.31436462002</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14732,7 +15218,7 @@
         <v>24278.31436462002</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14765,7 +15251,7 @@
         <v>24490.66276462001</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14798,7 +15284,7 @@
         <v>24512.73251876001</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14831,7 +15317,7 @@
         <v>24545.51011876002</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14864,7 +15350,7 @@
         <v>24545.51011876002</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14897,7 +15383,7 @@
         <v>24654.72281876002</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14930,7 +15416,7 @@
         <v>28377.80421876001</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14963,7 +15449,7 @@
         <v>28394.83021876002</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14996,7 +15482,7 @@
         <v>27360.48361876002</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15029,7 +15515,7 @@
         <v>23000.95261876002</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15062,7 +15548,7 @@
         <v>23001.95261876002</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15095,7 +15581,7 @@
         <v>21548.97481876002</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15128,7 +15614,7 @@
         <v>21883.70941876002</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15161,7 +15647,7 @@
         <v>21894.70941876002</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15194,7 +15680,7 @@
         <v>22691.05998579002</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15227,7 +15713,7 @@
         <v>22114.78618579002</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15260,7 +15746,7 @@
         <v>22344.24008579002</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15293,7 +15779,7 @@
         <v>22356.21330007002</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15326,7 +15812,7 @@
         <v>22270.85283542002</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15359,7 +15845,7 @@
         <v>22963.74063542002</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15392,7 +15878,7 @@
         <v>23000.74063542002</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15425,7 +15911,7 @@
         <v>23014.73680732002</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15458,7 +15944,7 @@
         <v>22991.18650732002</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15491,7 +15977,7 @@
         <v>21181.60090732002</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15524,7 +16010,7 @@
         <v>21339.99140732002</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15557,7 +16043,7 @@
         <v>21256.78750732002</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15590,7 +16076,7 @@
         <v>21298.14120732002</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15623,7 +16109,7 @@
         <v>21270.10450732002</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15656,7 +16142,7 @@
         <v>21172.51213846002</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15689,7 +16175,7 @@
         <v>21172.51213846002</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15722,7 +16208,7 @@
         <v>20705.60703846002</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15755,7 +16241,7 @@
         <v>20705.60703846002</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15788,7 +16274,7 @@
         <v>20723.62703846002</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15821,7 +16307,7 @@
         <v>22659.44413846002</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15854,7 +16340,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15887,7 +16373,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15920,7 +16406,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15953,7 +16439,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15986,7 +16472,7 @@
         <v>21600.26433846002</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16019,7 +16505,7 @@
         <v>21641.61793846002</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16052,7 +16538,7 @@
         <v>21641.61793846002</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16085,7 +16571,7 @@
         <v>16394.89403846002</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16118,7 +16604,7 @@
         <v>16394.89403846002</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16151,7 +16637,7 @@
         <v>16827.89493846002</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16184,7 +16670,7 @@
         <v>15243.41683846002</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16283,7 +16769,7 @@
         <v>13931.24643846002</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16514,7 +17000,7 @@
         <v>19336.54950309002</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16547,7 +17033,7 @@
         <v>19336.54950309002</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16580,7 +17066,7 @@
         <v>16959.18353119002</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16613,7 +17099,7 @@
         <v>16959.18353119002</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16679,7 +17165,7 @@
         <v>17025.31243119002</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16712,7 +17198,7 @@
         <v>16783.91353119002</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16745,7 +17231,7 @@
         <v>16783.91353119002</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16778,7 +17264,7 @@
         <v>16784.91353119002</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16811,7 +17297,7 @@
         <v>16618.60293119002</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16844,7 +17330,7 @@
         <v>16498.12803119002</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16877,7 +17363,7 @@
         <v>16228.88863119002</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16910,7 +17396,7 @@
         <v>16229.16863119002</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16943,7 +17429,7 @@
         <v>16209.60743119002</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16976,7 +17462,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17009,7 +17495,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17042,7 +17528,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17075,7 +17561,7 @@
         <v>18437.91783119002</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17108,7 +17594,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17174,7 +17660,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17207,7 +17693,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17240,7 +17726,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17273,7 +17759,7 @@
         <v>17621.65123119002</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17306,7 +17792,7 @@
         <v>17687.61383119001</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17339,7 +17825,7 @@
         <v>17687.61383119001</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17372,7 +17858,7 @@
         <v>17644.09553119001</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17405,7 +17891,7 @@
         <v>17823.90663119001</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17438,7 +17924,7 @@
         <v>15623.50733119001</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17471,7 +17957,7 @@
         <v>14014.16303119001</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17504,7 +17990,7 @@
         <v>9441.556231190012</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17537,7 +18023,7 @@
         <v>9446.146731190012</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
